--- a/Documentação/Tabelas_LN/tdsls400-Ordens de Venda.xlsx
+++ b/Documentação/Tabelas_LN/tdsls400-Ordens de Venda.xlsx
@@ -327,7 +327,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="335">
   <si>
     <t/>
   </si>
@@ -1706,7 +1706,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L98" sqref="L98"/>
+      <selection pane="bottomLeft" activeCell="A90" sqref="A90:XFD90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6713,6 +6713,33 @@
       </c>
     </row>
     <row r="90" spans="1:18">
+      <c r="A90" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I90" s="4">
+        <v>0</v>
+      </c>
       <c r="K90" s="5" t="s">
         <v>333</v>
       </c>
@@ -6728,7 +6755,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048575 L2:L1048575">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048575 E2:E1048575">
       <formula1>ttyeno</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048575">
